--- a/data/Employee Presence data.xlsx
+++ b/data/Employee Presence data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ngoujili\Downloads\dev Matthieu\Prediction-of-Employee-Presence-in-Smart-Workplaces\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0960A94E-9BD7-4832-B167-3E0524E8D1D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1C831D7-B61B-4DFE-AA9A-75249D53529C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Venues" sheetId="2" r:id="rId1"/>
@@ -378,10 +378,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D43EA9CD-6DF4-48F5-A9F0-3366B6364008}">
-  <dimension ref="A1:G284"/>
+  <dimension ref="A1:E284"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" topLeftCell="A206" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A284"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -389,7 +389,7 @@
     <col min="1" max="1" width="10.6640625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -406,7 +406,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>44805</v>
       </c>
@@ -422,9 +422,8 @@
       <c r="E2">
         <v>0</v>
       </c>
-      <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>44806</v>
       </c>
@@ -440,9 +439,8 @@
       <c r="E3">
         <v>0</v>
       </c>
-      <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>44809</v>
       </c>
@@ -458,9 +456,8 @@
       <c r="E4">
         <v>0</v>
       </c>
-      <c r="G4" s="1"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>44810</v>
       </c>
@@ -476,9 +473,8 @@
       <c r="E5">
         <v>0</v>
       </c>
-      <c r="G5" s="1"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>44811</v>
       </c>
@@ -494,9 +490,8 @@
       <c r="E6">
         <v>0</v>
       </c>
-      <c r="G6" s="1"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>44812</v>
       </c>
@@ -512,9 +507,8 @@
       <c r="E7">
         <v>0</v>
       </c>
-      <c r="G7" s="1"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>44813</v>
       </c>
@@ -530,9 +524,8 @@
       <c r="E8">
         <v>0</v>
       </c>
-      <c r="G8" s="1"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>44816</v>
       </c>
@@ -548,9 +541,8 @@
       <c r="E9">
         <v>0</v>
       </c>
-      <c r="G9" s="1"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>44817</v>
       </c>
@@ -566,9 +558,8 @@
       <c r="E10">
         <v>0</v>
       </c>
-      <c r="G10" s="1"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>44818</v>
       </c>
@@ -584,9 +575,8 @@
       <c r="E11">
         <v>0</v>
       </c>
-      <c r="G11" s="1"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>44819</v>
       </c>
@@ -602,9 +592,8 @@
       <c r="E12">
         <v>0</v>
       </c>
-      <c r="G12" s="1"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>44820</v>
       </c>
@@ -620,9 +609,8 @@
       <c r="E13">
         <v>0</v>
       </c>
-      <c r="G13" s="1"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>44823</v>
       </c>
@@ -638,9 +626,8 @@
       <c r="E14">
         <v>0</v>
       </c>
-      <c r="G14" s="1"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>44824</v>
       </c>
@@ -656,9 +643,8 @@
       <c r="E15">
         <v>0</v>
       </c>
-      <c r="G15" s="1"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>44825</v>
       </c>
@@ -674,9 +660,8 @@
       <c r="E16">
         <v>0</v>
       </c>
-      <c r="G16" s="1"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>44826</v>
       </c>
@@ -692,9 +677,8 @@
       <c r="E17">
         <v>0</v>
       </c>
-      <c r="G17" s="1"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>44827</v>
       </c>
@@ -710,9 +694,8 @@
       <c r="E18">
         <v>0</v>
       </c>
-      <c r="G18" s="1"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>44830</v>
       </c>
@@ -728,9 +711,8 @@
       <c r="E19">
         <v>0</v>
       </c>
-      <c r="G19" s="1"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>44831</v>
       </c>
@@ -746,9 +728,8 @@
       <c r="E20">
         <v>0</v>
       </c>
-      <c r="G20" s="1"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>44832</v>
       </c>
@@ -764,9 +745,8 @@
       <c r="E21">
         <v>0</v>
       </c>
-      <c r="G21" s="1"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>44833</v>
       </c>
@@ -782,9 +762,8 @@
       <c r="E22">
         <v>0</v>
       </c>
-      <c r="G22" s="1"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>44834</v>
       </c>
@@ -800,9 +779,8 @@
       <c r="E23">
         <v>0</v>
       </c>
-      <c r="G23" s="1"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>44837</v>
       </c>
@@ -818,9 +796,8 @@
       <c r="E24">
         <v>0</v>
       </c>
-      <c r="G24" s="1"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>44838</v>
       </c>
@@ -836,9 +813,8 @@
       <c r="E25">
         <v>0</v>
       </c>
-      <c r="G25" s="1"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>44839</v>
       </c>
@@ -854,9 +830,8 @@
       <c r="E26">
         <v>0</v>
       </c>
-      <c r="G26" s="1"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>44840</v>
       </c>
@@ -872,9 +847,8 @@
       <c r="E27">
         <v>0</v>
       </c>
-      <c r="G27" s="1"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>44841</v>
       </c>
@@ -890,9 +864,8 @@
       <c r="E28">
         <v>0</v>
       </c>
-      <c r="G28" s="1"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>44844</v>
       </c>
@@ -908,9 +881,8 @@
       <c r="E29">
         <v>0</v>
       </c>
-      <c r="G29" s="1"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>44845</v>
       </c>
@@ -926,9 +898,8 @@
       <c r="E30">
         <v>0</v>
       </c>
-      <c r="G30" s="1"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>44846</v>
       </c>
@@ -944,9 +915,8 @@
       <c r="E31">
         <v>0</v>
       </c>
-      <c r="G31" s="1"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>44847</v>
       </c>
@@ -962,9 +932,8 @@
       <c r="E32">
         <v>0</v>
       </c>
-      <c r="G32" s="1"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>44848</v>
       </c>
@@ -980,9 +949,8 @@
       <c r="E33">
         <v>0</v>
       </c>
-      <c r="G33" s="1"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>44851</v>
       </c>
@@ -998,9 +966,8 @@
       <c r="E34">
         <v>0</v>
       </c>
-      <c r="G34" s="1"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>44852</v>
       </c>
@@ -1016,9 +983,8 @@
       <c r="E35">
         <v>0</v>
       </c>
-      <c r="G35" s="1"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>44853</v>
       </c>
@@ -1034,9 +1000,8 @@
       <c r="E36">
         <v>0</v>
       </c>
-      <c r="G36" s="1"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>44854</v>
       </c>
@@ -1052,9 +1017,8 @@
       <c r="E37">
         <v>0</v>
       </c>
-      <c r="G37" s="1"/>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>44855</v>
       </c>
@@ -1070,9 +1034,8 @@
       <c r="E38">
         <v>0</v>
       </c>
-      <c r="G38" s="1"/>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>44858</v>
       </c>
@@ -1088,9 +1051,8 @@
       <c r="E39">
         <v>0</v>
       </c>
-      <c r="G39" s="1"/>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>44859</v>
       </c>
@@ -1106,9 +1068,8 @@
       <c r="E40">
         <v>0</v>
       </c>
-      <c r="G40" s="1"/>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>44860</v>
       </c>
@@ -1124,9 +1085,8 @@
       <c r="E41">
         <v>0</v>
       </c>
-      <c r="G41" s="1"/>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>44861</v>
       </c>
@@ -1142,9 +1102,8 @@
       <c r="E42">
         <v>0</v>
       </c>
-      <c r="G42" s="1"/>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>44862</v>
       </c>
@@ -1160,9 +1119,8 @@
       <c r="E43">
         <v>0</v>
       </c>
-      <c r="G43" s="1"/>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>44865</v>
       </c>
@@ -1178,9 +1136,8 @@
       <c r="E44">
         <v>0</v>
       </c>
-      <c r="G44" s="1"/>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>44867</v>
       </c>
@@ -1196,9 +1153,8 @@
       <c r="E45">
         <v>0</v>
       </c>
-      <c r="G45" s="1"/>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>44868</v>
       </c>
@@ -1214,9 +1170,8 @@
       <c r="E46">
         <v>0</v>
       </c>
-      <c r="G46" s="1"/>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>44869</v>
       </c>
@@ -1232,9 +1187,8 @@
       <c r="E47">
         <v>0</v>
       </c>
-      <c r="G47" s="1"/>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>44872</v>
       </c>
@@ -1250,9 +1204,8 @@
       <c r="E48">
         <v>0</v>
       </c>
-      <c r="G48" s="1"/>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>44873</v>
       </c>
@@ -1268,9 +1221,8 @@
       <c r="E49">
         <v>0</v>
       </c>
-      <c r="G49" s="1"/>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>44874</v>
       </c>
@@ -1286,9 +1238,8 @@
       <c r="E50">
         <v>0</v>
       </c>
-      <c r="G50" s="1"/>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>44875</v>
       </c>
@@ -1304,9 +1255,8 @@
       <c r="E51">
         <v>0</v>
       </c>
-      <c r="G51" s="1"/>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>44886</v>
       </c>
@@ -1322,9 +1272,8 @@
       <c r="E52">
         <v>0</v>
       </c>
-      <c r="G52" s="1"/>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>44887</v>
       </c>
@@ -1340,9 +1289,8 @@
       <c r="E53">
         <v>0</v>
       </c>
-      <c r="G53" s="1"/>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>44888</v>
       </c>
@@ -1358,9 +1306,8 @@
       <c r="E54">
         <v>0</v>
       </c>
-      <c r="G54" s="1"/>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>44889</v>
       </c>
@@ -1376,9 +1323,8 @@
       <c r="E55">
         <v>0</v>
       </c>
-      <c r="G55" s="1"/>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>44890</v>
       </c>
@@ -1394,9 +1340,8 @@
       <c r="E56">
         <v>0</v>
       </c>
-      <c r="G56" s="1"/>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>44893</v>
       </c>
@@ -1412,9 +1357,8 @@
       <c r="E57">
         <v>0</v>
       </c>
-      <c r="G57" s="1"/>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>44894</v>
       </c>
@@ -1430,9 +1374,8 @@
       <c r="E58">
         <v>0</v>
       </c>
-      <c r="G58" s="1"/>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>44895</v>
       </c>
@@ -1448,9 +1391,8 @@
       <c r="E59">
         <v>0</v>
       </c>
-      <c r="G59" s="1"/>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>44896</v>
       </c>
@@ -1466,9 +1408,8 @@
       <c r="E60">
         <v>0</v>
       </c>
-      <c r="G60" s="1"/>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>44897</v>
       </c>
@@ -1484,9 +1425,8 @@
       <c r="E61">
         <v>0</v>
       </c>
-      <c r="G61" s="1"/>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>44900</v>
       </c>
@@ -1502,9 +1442,8 @@
       <c r="E62">
         <v>0</v>
       </c>
-      <c r="G62" s="1"/>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>44901</v>
       </c>
@@ -1520,9 +1459,8 @@
       <c r="E63">
         <v>0</v>
       </c>
-      <c r="G63" s="1"/>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>44902</v>
       </c>
@@ -1538,9 +1476,8 @@
       <c r="E64">
         <v>0</v>
       </c>
-      <c r="G64" s="1"/>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>44903</v>
       </c>
@@ -1556,9 +1493,8 @@
       <c r="E65">
         <v>0</v>
       </c>
-      <c r="G65" s="1"/>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>44904</v>
       </c>
@@ -1574,9 +1510,8 @@
       <c r="E66">
         <v>0</v>
       </c>
-      <c r="G66" s="1"/>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>44907</v>
       </c>
@@ -1592,9 +1527,8 @@
       <c r="E67">
         <v>0</v>
       </c>
-      <c r="G67" s="1"/>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>44908</v>
       </c>
@@ -1610,9 +1544,8 @@
       <c r="E68">
         <v>0</v>
       </c>
-      <c r="G68" s="1"/>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>44909</v>
       </c>
@@ -1628,9 +1561,8 @@
       <c r="E69">
         <v>0</v>
       </c>
-      <c r="G69" s="1"/>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>44910</v>
       </c>
@@ -1646,9 +1578,8 @@
       <c r="E70">
         <v>0</v>
       </c>
-      <c r="G70" s="1"/>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>44911</v>
       </c>
@@ -1664,9 +1595,8 @@
       <c r="E71">
         <v>0</v>
       </c>
-      <c r="G71" s="1"/>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>44914</v>
       </c>
@@ -1682,9 +1612,8 @@
       <c r="E72">
         <v>0</v>
       </c>
-      <c r="G72" s="1"/>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>44915</v>
       </c>
@@ -1700,9 +1629,8 @@
       <c r="E73">
         <v>0</v>
       </c>
-      <c r="G73" s="1"/>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>44916</v>
       </c>
@@ -1718,9 +1646,8 @@
       <c r="E74">
         <v>0</v>
       </c>
-      <c r="G74" s="1"/>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>44917</v>
       </c>
@@ -1736,9 +1663,8 @@
       <c r="E75">
         <v>0</v>
       </c>
-      <c r="G75" s="1"/>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>44918</v>
       </c>
@@ -1754,9 +1680,8 @@
       <c r="E76">
         <v>0</v>
       </c>
-      <c r="G76" s="1"/>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>44928</v>
       </c>
@@ -1772,9 +1697,8 @@
       <c r="E77">
         <v>0</v>
       </c>
-      <c r="G77" s="1"/>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>44929</v>
       </c>
@@ -1790,9 +1714,8 @@
       <c r="E78">
         <v>0</v>
       </c>
-      <c r="G78" s="1"/>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>44930</v>
       </c>
@@ -1808,9 +1731,8 @@
       <c r="E79">
         <v>0</v>
       </c>
-      <c r="G79" s="1"/>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>44931</v>
       </c>
@@ -1826,9 +1748,8 @@
       <c r="E80">
         <v>0</v>
       </c>
-      <c r="G80" s="1"/>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>44932</v>
       </c>
@@ -1844,9 +1765,8 @@
       <c r="E81">
         <v>0</v>
       </c>
-      <c r="G81" s="1"/>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>44935</v>
       </c>
@@ -1862,9 +1782,8 @@
       <c r="E82">
         <v>0</v>
       </c>
-      <c r="G82" s="1"/>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>44936</v>
       </c>
@@ -1880,9 +1799,8 @@
       <c r="E83">
         <v>0</v>
       </c>
-      <c r="G83" s="1"/>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>44937</v>
       </c>
@@ -1898,9 +1816,8 @@
       <c r="E84">
         <v>0</v>
       </c>
-      <c r="G84" s="1"/>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>44938</v>
       </c>
@@ -1916,9 +1833,8 @@
       <c r="E85">
         <v>0</v>
       </c>
-      <c r="G85" s="1"/>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>44939</v>
       </c>
@@ -1934,9 +1850,8 @@
       <c r="E86">
         <v>0</v>
       </c>
-      <c r="G86" s="1"/>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>44942</v>
       </c>
@@ -1952,9 +1867,8 @@
       <c r="E87">
         <v>0</v>
       </c>
-      <c r="G87" s="1"/>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>44943</v>
       </c>
@@ -1970,9 +1884,8 @@
       <c r="E88">
         <v>0</v>
       </c>
-      <c r="G88" s="1"/>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>44944</v>
       </c>
@@ -1988,9 +1901,8 @@
       <c r="E89">
         <v>0</v>
       </c>
-      <c r="G89" s="1"/>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>44945</v>
       </c>
@@ -2006,9 +1918,8 @@
       <c r="E90">
         <v>0</v>
       </c>
-      <c r="G90" s="1"/>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>44946</v>
       </c>
@@ -2024,9 +1935,8 @@
       <c r="E91">
         <v>0</v>
       </c>
-      <c r="G91" s="1"/>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>44949</v>
       </c>
@@ -2042,9 +1952,8 @@
       <c r="E92">
         <v>0</v>
       </c>
-      <c r="G92" s="1"/>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>44950</v>
       </c>
@@ -2060,9 +1969,8 @@
       <c r="E93">
         <v>0</v>
       </c>
-      <c r="G93" s="1"/>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>44951</v>
       </c>
@@ -2078,9 +1986,8 @@
       <c r="E94">
         <v>0</v>
       </c>
-      <c r="G94" s="1"/>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>44952</v>
       </c>
@@ -2096,9 +2003,8 @@
       <c r="E95">
         <v>0</v>
       </c>
-      <c r="G95" s="1"/>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>44953</v>
       </c>
@@ -2114,9 +2020,8 @@
       <c r="E96">
         <v>0</v>
       </c>
-      <c r="G96" s="1"/>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>44956</v>
       </c>
@@ -2132,9 +2037,8 @@
       <c r="E97">
         <v>0</v>
       </c>
-      <c r="G97" s="1"/>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <v>44957</v>
       </c>
@@ -2150,9 +2054,8 @@
       <c r="E98">
         <v>0</v>
       </c>
-      <c r="G98" s="1"/>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <v>44958</v>
       </c>
@@ -2168,9 +2071,8 @@
       <c r="E99">
         <v>0</v>
       </c>
-      <c r="G99" s="1"/>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>44959</v>
       </c>
@@ -2186,9 +2088,8 @@
       <c r="E100">
         <v>0</v>
       </c>
-      <c r="G100" s="1"/>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <v>44960</v>
       </c>
@@ -2204,9 +2105,8 @@
       <c r="E101">
         <v>0</v>
       </c>
-      <c r="G101" s="1"/>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <v>44963</v>
       </c>
@@ -2222,9 +2122,8 @@
       <c r="E102">
         <v>0</v>
       </c>
-      <c r="G102" s="1"/>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <v>44964</v>
       </c>
@@ -2240,9 +2139,8 @@
       <c r="E103">
         <v>0</v>
       </c>
-      <c r="G103" s="1"/>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
         <v>44965</v>
       </c>
@@ -2258,9 +2156,8 @@
       <c r="E104">
         <v>0</v>
       </c>
-      <c r="G104" s="1"/>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
         <v>44966</v>
       </c>
@@ -2276,9 +2173,8 @@
       <c r="E105">
         <v>0</v>
       </c>
-      <c r="G105" s="1"/>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
         <v>44967</v>
       </c>
@@ -2294,9 +2190,8 @@
       <c r="E106">
         <v>0</v>
       </c>
-      <c r="G106" s="1"/>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
         <v>44970</v>
       </c>
@@ -2312,9 +2207,8 @@
       <c r="E107">
         <v>0</v>
       </c>
-      <c r="G107" s="1"/>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
         <v>44971</v>
       </c>
@@ -2330,9 +2224,8 @@
       <c r="E108">
         <v>0</v>
       </c>
-      <c r="G108" s="1"/>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
         <v>44972</v>
       </c>
@@ -2348,9 +2241,8 @@
       <c r="E109">
         <v>0</v>
       </c>
-      <c r="G109" s="1"/>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
         <v>44973</v>
       </c>
@@ -2366,9 +2258,8 @@
       <c r="E110">
         <v>0</v>
       </c>
-      <c r="G110" s="1"/>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
         <v>44974</v>
       </c>
@@ -2384,9 +2275,8 @@
       <c r="E111">
         <v>0</v>
       </c>
-      <c r="G111" s="1"/>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
         <v>44977</v>
       </c>
@@ -2402,9 +2292,8 @@
       <c r="E112">
         <v>1</v>
       </c>
-      <c r="G112" s="1"/>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
         <v>44978</v>
       </c>
@@ -2420,9 +2309,8 @@
       <c r="E113">
         <v>1</v>
       </c>
-      <c r="G113" s="1"/>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
         <v>44979</v>
       </c>
@@ -2438,9 +2326,8 @@
       <c r="E114">
         <v>1</v>
       </c>
-      <c r="G114" s="1"/>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
         <v>44980</v>
       </c>
@@ -2456,9 +2343,8 @@
       <c r="E115">
         <v>1</v>
       </c>
-      <c r="G115" s="1"/>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
         <v>44981</v>
       </c>
@@ -2474,9 +2360,8 @@
       <c r="E116">
         <v>1</v>
       </c>
-      <c r="G116" s="1"/>
-    </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
         <v>44984</v>
       </c>
@@ -2492,9 +2377,8 @@
       <c r="E117">
         <v>1</v>
       </c>
-      <c r="G117" s="1"/>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
         <v>44985</v>
       </c>
@@ -2510,9 +2394,8 @@
       <c r="E118">
         <v>1</v>
       </c>
-      <c r="G118" s="1"/>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
         <v>44986</v>
       </c>
@@ -2528,9 +2411,8 @@
       <c r="E119">
         <v>1</v>
       </c>
-      <c r="G119" s="1"/>
-    </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
         <v>44987</v>
       </c>
@@ -2546,9 +2428,8 @@
       <c r="E120">
         <v>1</v>
       </c>
-      <c r="G120" s="1"/>
-    </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
         <v>44988</v>
       </c>
@@ -2564,9 +2445,8 @@
       <c r="E121">
         <v>1</v>
       </c>
-      <c r="G121" s="1"/>
-    </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
         <v>44991</v>
       </c>
@@ -2582,9 +2462,8 @@
       <c r="E122">
         <v>0</v>
       </c>
-      <c r="G122" s="1"/>
-    </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A123" s="1">
         <v>44992</v>
       </c>
@@ -2600,9 +2479,8 @@
       <c r="E123">
         <v>0</v>
       </c>
-      <c r="G123" s="1"/>
-    </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
         <v>44993</v>
       </c>
@@ -2618,9 +2496,8 @@
       <c r="E124">
         <v>0</v>
       </c>
-      <c r="G124" s="1"/>
-    </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A125" s="1">
         <v>44994</v>
       </c>
@@ -2636,9 +2513,8 @@
       <c r="E125">
         <v>0</v>
       </c>
-      <c r="G125" s="1"/>
-    </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A126" s="1">
         <v>44995</v>
       </c>
@@ -2654,9 +2530,8 @@
       <c r="E126">
         <v>0</v>
       </c>
-      <c r="G126" s="1"/>
-    </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A127" s="1">
         <v>44998</v>
       </c>
@@ -2672,9 +2547,8 @@
       <c r="E127">
         <v>0</v>
       </c>
-      <c r="G127" s="1"/>
-    </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A128" s="1">
         <v>44999</v>
       </c>
@@ -2690,9 +2564,8 @@
       <c r="E128">
         <v>0</v>
       </c>
-      <c r="G128" s="1"/>
-    </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A129" s="1">
         <v>45000</v>
       </c>
@@ -2708,9 +2581,8 @@
       <c r="E129">
         <v>0</v>
       </c>
-      <c r="G129" s="1"/>
-    </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A130" s="1">
         <v>45001</v>
       </c>
@@ -2726,9 +2598,8 @@
       <c r="E130">
         <v>0</v>
       </c>
-      <c r="G130" s="1"/>
-    </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A131" s="1">
         <v>45002</v>
       </c>
@@ -2744,9 +2615,8 @@
       <c r="E131">
         <v>0</v>
       </c>
-      <c r="G131" s="1"/>
-    </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A132" s="1">
         <v>45005</v>
       </c>
@@ -2762,9 +2632,8 @@
       <c r="E132">
         <v>0</v>
       </c>
-      <c r="G132" s="1"/>
-    </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A133" s="1">
         <v>45006</v>
       </c>
@@ -2780,9 +2649,8 @@
       <c r="E133">
         <v>0</v>
       </c>
-      <c r="G133" s="1"/>
-    </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A134" s="1">
         <v>45007</v>
       </c>
@@ -2798,9 +2666,8 @@
       <c r="E134">
         <v>0</v>
       </c>
-      <c r="G134" s="1"/>
-    </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A135" s="1">
         <v>45008</v>
       </c>
@@ -2816,9 +2683,8 @@
       <c r="E135">
         <v>0</v>
       </c>
-      <c r="G135" s="1"/>
-    </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A136" s="1">
         <v>45009</v>
       </c>
@@ -2834,9 +2700,8 @@
       <c r="E136">
         <v>0</v>
       </c>
-      <c r="G136" s="1"/>
-    </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A137" s="1">
         <v>45012</v>
       </c>
@@ -2852,9 +2717,8 @@
       <c r="E137">
         <v>0</v>
       </c>
-      <c r="G137" s="1"/>
-    </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A138" s="1">
         <v>45013</v>
       </c>
@@ -2870,9 +2734,8 @@
       <c r="E138">
         <v>0</v>
       </c>
-      <c r="G138" s="1"/>
-    </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A139" s="1">
         <v>45014</v>
       </c>
@@ -2888,9 +2751,8 @@
       <c r="E139">
         <v>0</v>
       </c>
-      <c r="G139" s="1"/>
-    </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A140" s="1">
         <v>45015</v>
       </c>
@@ -2906,9 +2768,8 @@
       <c r="E140">
         <v>0</v>
       </c>
-      <c r="G140" s="1"/>
-    </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A141" s="1">
         <v>45016</v>
       </c>
@@ -2924,9 +2785,8 @@
       <c r="E141">
         <v>0</v>
       </c>
-      <c r="G141" s="1"/>
-    </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A142" s="1">
         <v>45019</v>
       </c>
@@ -2942,9 +2802,8 @@
       <c r="E142">
         <v>0</v>
       </c>
-      <c r="G142" s="1"/>
-    </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A143" s="1">
         <v>45020</v>
       </c>
@@ -2960,9 +2819,8 @@
       <c r="E143">
         <v>0</v>
       </c>
-      <c r="G143" s="1"/>
-    </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A144" s="1">
         <v>45021</v>
       </c>
@@ -2978,9 +2836,8 @@
       <c r="E144">
         <v>0</v>
       </c>
-      <c r="G144" s="1"/>
-    </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A145" s="1">
         <v>45022</v>
       </c>
@@ -2996,9 +2853,8 @@
       <c r="E145">
         <v>0</v>
       </c>
-      <c r="G145" s="1"/>
-    </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A146" s="1">
         <v>45023</v>
       </c>
@@ -3014,9 +2870,8 @@
       <c r="E146">
         <v>0</v>
       </c>
-      <c r="G146" s="1"/>
-    </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A147" s="1">
         <v>45026</v>
       </c>
@@ -3032,9 +2887,8 @@
       <c r="E147">
         <v>0</v>
       </c>
-      <c r="G147" s="1"/>
-    </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A148" s="1">
         <v>45027</v>
       </c>
@@ -3050,9 +2904,8 @@
       <c r="E148">
         <v>0</v>
       </c>
-      <c r="G148" s="1"/>
-    </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A149" s="1">
         <v>45028</v>
       </c>
@@ -3068,9 +2921,8 @@
       <c r="E149">
         <v>0</v>
       </c>
-      <c r="G149" s="1"/>
-    </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A150" s="1">
         <v>45029</v>
       </c>
@@ -3086,9 +2938,8 @@
       <c r="E150">
         <v>0</v>
       </c>
-      <c r="G150" s="1"/>
-    </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A151" s="1">
         <v>45030</v>
       </c>
@@ -3104,9 +2955,8 @@
       <c r="E151">
         <v>0</v>
       </c>
-      <c r="G151" s="1"/>
-    </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A152" s="1">
         <v>45033</v>
       </c>
@@ -3122,9 +2972,8 @@
       <c r="E152">
         <v>0</v>
       </c>
-      <c r="G152" s="1"/>
-    </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A153" s="1">
         <v>45034</v>
       </c>
@@ -3140,9 +2989,8 @@
       <c r="E153">
         <v>0</v>
       </c>
-      <c r="G153" s="1"/>
-    </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A154" s="1">
         <v>45035</v>
       </c>
@@ -3158,9 +3006,8 @@
       <c r="E154">
         <v>0</v>
       </c>
-      <c r="G154" s="1"/>
-    </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A155" s="1">
         <v>45036</v>
       </c>
@@ -3176,9 +3023,8 @@
       <c r="E155">
         <v>0</v>
       </c>
-      <c r="G155" s="1"/>
-    </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A156" s="1">
         <v>45037</v>
       </c>
@@ -3194,9 +3040,8 @@
       <c r="E156">
         <v>0</v>
       </c>
-      <c r="G156" s="1"/>
-    </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A157" s="1">
         <v>45040</v>
       </c>
@@ -3212,9 +3057,8 @@
       <c r="E157">
         <v>1</v>
       </c>
-      <c r="G157" s="1"/>
-    </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A158" s="1">
         <v>45041</v>
       </c>
@@ -3230,9 +3074,8 @@
       <c r="E158">
         <v>1</v>
       </c>
-      <c r="G158" s="1"/>
-    </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A159" s="1">
         <v>45042</v>
       </c>
@@ -3248,9 +3091,8 @@
       <c r="E159">
         <v>1</v>
       </c>
-      <c r="G159" s="1"/>
-    </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A160" s="1">
         <v>45043</v>
       </c>
@@ -3266,9 +3108,8 @@
       <c r="E160">
         <v>1</v>
       </c>
-      <c r="G160" s="1"/>
-    </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A161" s="1">
         <v>45044</v>
       </c>
@@ -3284,9 +3125,8 @@
       <c r="E161">
         <v>1</v>
       </c>
-      <c r="G161" s="1"/>
-    </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A162" s="1">
         <v>45048</v>
       </c>
@@ -3302,9 +3142,8 @@
       <c r="E162">
         <v>1</v>
       </c>
-      <c r="G162" s="1"/>
-    </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A163" s="1">
         <v>45049</v>
       </c>
@@ -3320,9 +3159,8 @@
       <c r="E163">
         <v>1</v>
       </c>
-      <c r="G163" s="1"/>
-    </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A164" s="1">
         <v>45050</v>
       </c>
@@ -3338,9 +3176,8 @@
       <c r="E164">
         <v>1</v>
       </c>
-      <c r="G164" s="1"/>
-    </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A165" s="1">
         <v>45051</v>
       </c>
@@ -3356,9 +3193,8 @@
       <c r="E165">
         <v>1</v>
       </c>
-      <c r="G165" s="1"/>
-    </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A166" s="1">
         <v>45054</v>
       </c>
@@ -3374,9 +3210,8 @@
       <c r="E166">
         <v>0</v>
       </c>
-      <c r="G166" s="1"/>
-    </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A167" s="1">
         <v>45055</v>
       </c>
@@ -3392,9 +3227,8 @@
       <c r="E167">
         <v>0</v>
       </c>
-      <c r="G167" s="1"/>
-    </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A168" s="1">
         <v>45056</v>
       </c>
@@ -3410,9 +3244,8 @@
       <c r="E168">
         <v>0</v>
       </c>
-      <c r="G168" s="1"/>
-    </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A169" s="1">
         <v>45057</v>
       </c>
@@ -3428,9 +3261,8 @@
       <c r="E169">
         <v>0</v>
       </c>
-      <c r="G169" s="1"/>
-    </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A170" s="1">
         <v>45058</v>
       </c>
@@ -3446,9 +3278,8 @@
       <c r="E170">
         <v>0</v>
       </c>
-      <c r="G170" s="1"/>
-    </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A171" s="1">
         <v>45061</v>
       </c>
@@ -3464,9 +3295,8 @@
       <c r="E171">
         <v>0</v>
       </c>
-      <c r="G171" s="1"/>
-    </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A172" s="1">
         <v>45062</v>
       </c>
@@ -3482,9 +3312,8 @@
       <c r="E172">
         <v>0</v>
       </c>
-      <c r="G172" s="1"/>
-    </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A173" s="1">
         <v>45063</v>
       </c>
@@ -3500,9 +3329,8 @@
       <c r="E173">
         <v>0</v>
       </c>
-      <c r="G173" s="1"/>
-    </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A174" s="1">
         <v>45064</v>
       </c>
@@ -3518,9 +3346,8 @@
       <c r="E174">
         <v>0</v>
       </c>
-      <c r="G174" s="1"/>
-    </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A175" s="1">
         <v>45065</v>
       </c>
@@ -3536,9 +3363,8 @@
       <c r="E175">
         <v>0</v>
       </c>
-      <c r="G175" s="1"/>
-    </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A176" s="1">
         <v>45068</v>
       </c>
@@ -3554,9 +3380,8 @@
       <c r="E176">
         <v>0</v>
       </c>
-      <c r="G176" s="1"/>
-    </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A177" s="1">
         <v>45069</v>
       </c>
@@ -3572,9 +3397,8 @@
       <c r="E177">
         <v>0</v>
       </c>
-      <c r="G177" s="1"/>
-    </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A178" s="1">
         <v>45070</v>
       </c>
@@ -3590,9 +3414,8 @@
       <c r="E178">
         <v>0</v>
       </c>
-      <c r="G178" s="1"/>
-    </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A179" s="1">
         <v>45071</v>
       </c>
@@ -3608,9 +3431,8 @@
       <c r="E179">
         <v>0</v>
       </c>
-      <c r="G179" s="1"/>
-    </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A180" s="1">
         <v>45072</v>
       </c>
@@ -3626,9 +3448,8 @@
       <c r="E180">
         <v>0</v>
       </c>
-      <c r="G180" s="1"/>
-    </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A181" s="1">
         <v>45075</v>
       </c>
@@ -3644,9 +3465,8 @@
       <c r="E181">
         <v>0</v>
       </c>
-      <c r="G181" s="1"/>
-    </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A182" s="1">
         <v>45076</v>
       </c>
@@ -3662,9 +3482,8 @@
       <c r="E182">
         <v>0</v>
       </c>
-      <c r="G182" s="1"/>
-    </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A183" s="1">
         <v>45077</v>
       </c>
@@ -3680,9 +3499,8 @@
       <c r="E183">
         <v>0</v>
       </c>
-      <c r="G183" s="1"/>
-    </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A184" s="1">
         <v>45078</v>
       </c>
@@ -3698,9 +3516,8 @@
       <c r="E184">
         <v>0</v>
       </c>
-      <c r="G184" s="1"/>
-    </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A185" s="1">
         <v>45079</v>
       </c>
@@ -3716,9 +3533,8 @@
       <c r="E185">
         <v>0</v>
       </c>
-      <c r="G185" s="1"/>
-    </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A186" s="1">
         <v>45082</v>
       </c>
@@ -3734,9 +3550,8 @@
       <c r="E186">
         <v>0</v>
       </c>
-      <c r="G186" s="1"/>
-    </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A187" s="1">
         <v>45083</v>
       </c>
@@ -3752,9 +3567,8 @@
       <c r="E187">
         <v>0</v>
       </c>
-      <c r="G187" s="1"/>
-    </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A188" s="1">
         <v>45084</v>
       </c>
@@ -3770,9 +3584,8 @@
       <c r="E188">
         <v>0</v>
       </c>
-      <c r="G188" s="1"/>
-    </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A189" s="1">
         <v>45085</v>
       </c>
@@ -3788,9 +3601,8 @@
       <c r="E189">
         <v>0</v>
       </c>
-      <c r="G189" s="1"/>
-    </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A190" s="1">
         <v>45086</v>
       </c>
@@ -3806,9 +3618,8 @@
       <c r="E190">
         <v>0</v>
       </c>
-      <c r="G190" s="1"/>
-    </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A191" s="1">
         <v>45089</v>
       </c>
@@ -3824,9 +3635,8 @@
       <c r="E191">
         <v>0</v>
       </c>
-      <c r="G191" s="1"/>
-    </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A192" s="1">
         <v>45090</v>
       </c>
@@ -3842,9 +3652,8 @@
       <c r="E192">
         <v>0</v>
       </c>
-      <c r="G192" s="1"/>
-    </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A193" s="1">
         <v>45091</v>
       </c>
@@ -3860,9 +3669,8 @@
       <c r="E193">
         <v>0</v>
       </c>
-      <c r="G193" s="1"/>
-    </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A194" s="1">
         <v>45092</v>
       </c>
@@ -3878,9 +3686,8 @@
       <c r="E194">
         <v>0</v>
       </c>
-      <c r="G194" s="1"/>
-    </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A195" s="1">
         <v>45093</v>
       </c>
@@ -3896,9 +3703,8 @@
       <c r="E195">
         <v>0</v>
       </c>
-      <c r="G195" s="1"/>
-    </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A196" s="1">
         <v>45096</v>
       </c>
@@ -3914,9 +3720,8 @@
       <c r="E196">
         <v>0</v>
       </c>
-      <c r="G196" s="1"/>
-    </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A197" s="1">
         <v>45097</v>
       </c>
@@ -3932,9 +3737,8 @@
       <c r="E197">
         <v>0</v>
       </c>
-      <c r="G197" s="1"/>
-    </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A198" s="1">
         <v>45098</v>
       </c>
@@ -3950,9 +3754,8 @@
       <c r="E198">
         <v>0</v>
       </c>
-      <c r="G198" s="1"/>
-    </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A199" s="1">
         <v>45099</v>
       </c>
@@ -3968,9 +3771,8 @@
       <c r="E199">
         <v>0</v>
       </c>
-      <c r="G199" s="1"/>
-    </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A200" s="1">
         <v>45100</v>
       </c>
@@ -3986,9 +3788,8 @@
       <c r="E200">
         <v>0</v>
       </c>
-      <c r="G200" s="1"/>
-    </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A201" s="1">
         <v>45103</v>
       </c>
@@ -4004,9 +3805,8 @@
       <c r="E201">
         <v>0</v>
       </c>
-      <c r="G201" s="1"/>
-    </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A202" s="1">
         <v>45104</v>
       </c>
@@ -4022,9 +3822,8 @@
       <c r="E202">
         <v>0</v>
       </c>
-      <c r="G202" s="1"/>
-    </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A203" s="1">
         <v>45105</v>
       </c>
@@ -4040,9 +3839,8 @@
       <c r="E203">
         <v>0</v>
       </c>
-      <c r="G203" s="1"/>
-    </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A204" s="1">
         <v>45106</v>
       </c>
@@ -4058,9 +3856,8 @@
       <c r="E204">
         <v>0</v>
       </c>
-      <c r="G204" s="1"/>
-    </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A205" s="1">
         <v>45107</v>
       </c>
@@ -4076,9 +3873,8 @@
       <c r="E205">
         <v>0</v>
       </c>
-      <c r="G205" s="1"/>
-    </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A206" s="1">
         <v>45110</v>
       </c>
@@ -4094,9 +3890,8 @@
       <c r="E206">
         <v>0</v>
       </c>
-      <c r="G206" s="1"/>
-    </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A207" s="1">
         <v>45111</v>
       </c>
@@ -4112,9 +3907,8 @@
       <c r="E207">
         <v>0</v>
       </c>
-      <c r="G207" s="1"/>
-    </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A208" s="1">
         <v>45112</v>
       </c>
@@ -4130,9 +3924,8 @@
       <c r="E208">
         <v>0</v>
       </c>
-      <c r="G208" s="1"/>
-    </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A209" s="1">
         <v>45113</v>
       </c>
@@ -4148,9 +3941,8 @@
       <c r="E209">
         <v>0</v>
       </c>
-      <c r="G209" s="1"/>
-    </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A210" s="1">
         <v>45114</v>
       </c>
@@ -4166,9 +3958,8 @@
       <c r="E210">
         <v>0</v>
       </c>
-      <c r="G210" s="1"/>
-    </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A211" s="1">
         <v>45117</v>
       </c>
@@ -4184,9 +3975,8 @@
       <c r="E211">
         <v>1</v>
       </c>
-      <c r="G211" s="1"/>
-    </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A212" s="1">
         <v>45118</v>
       </c>
@@ -4202,9 +3992,8 @@
       <c r="E212">
         <v>1</v>
       </c>
-      <c r="G212" s="1"/>
-    </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A213" s="1">
         <v>45119</v>
       </c>
@@ -4220,9 +4009,8 @@
       <c r="E213">
         <v>1</v>
       </c>
-      <c r="G213" s="1"/>
-    </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A214" s="1">
         <v>45120</v>
       </c>
@@ -4238,9 +4026,8 @@
       <c r="E214">
         <v>1</v>
       </c>
-      <c r="G214" s="1"/>
-    </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A215" s="1">
         <v>45121</v>
       </c>
@@ -4256,9 +4043,8 @@
       <c r="E215">
         <v>1</v>
       </c>
-      <c r="G215" s="1"/>
-    </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A216" s="1">
         <v>45124</v>
       </c>
@@ -4274,9 +4060,8 @@
       <c r="E216">
         <v>1</v>
       </c>
-      <c r="G216" s="1"/>
-    </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A217" s="1">
         <v>45125</v>
       </c>
@@ -4292,9 +4077,8 @@
       <c r="E217">
         <v>1</v>
       </c>
-      <c r="G217" s="1"/>
-    </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A218" s="1">
         <v>45126</v>
       </c>
@@ -4310,9 +4094,8 @@
       <c r="E218">
         <v>1</v>
       </c>
-      <c r="G218" s="1"/>
-    </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A219" s="1">
         <v>45127</v>
       </c>
@@ -4328,9 +4111,8 @@
       <c r="E219">
         <v>1</v>
       </c>
-      <c r="G219" s="1"/>
-    </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A220" s="1">
         <v>45128</v>
       </c>
@@ -4346,9 +4128,8 @@
       <c r="E220">
         <v>1</v>
       </c>
-      <c r="G220" s="1"/>
-    </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A221" s="1">
         <v>45131</v>
       </c>
@@ -4364,9 +4145,8 @@
       <c r="E221">
         <v>1</v>
       </c>
-      <c r="G221" s="1"/>
-    </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A222" s="1">
         <v>45132</v>
       </c>
@@ -4382,9 +4162,8 @@
       <c r="E222">
         <v>1</v>
       </c>
-      <c r="G222" s="1"/>
-    </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A223" s="1">
         <v>45133</v>
       </c>
@@ -4400,9 +4179,8 @@
       <c r="E223">
         <v>1</v>
       </c>
-      <c r="G223" s="1"/>
-    </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A224" s="1">
         <v>45134</v>
       </c>
@@ -4418,14 +4196,13 @@
       <c r="E224">
         <v>1</v>
       </c>
-      <c r="G224" s="1"/>
-    </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A225" s="1">
         <v>45135</v>
       </c>
-      <c r="B225" t="e">
-        <v>#REF!</v>
+      <c r="B225">
+        <v>307</v>
       </c>
       <c r="C225">
         <v>0</v>
@@ -4436,14 +4213,13 @@
       <c r="E225">
         <v>1</v>
       </c>
-      <c r="G225" s="1"/>
-    </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A226" s="1">
         <v>45138</v>
       </c>
-      <c r="B226" t="e">
-        <v>#REF!</v>
+      <c r="B226">
+        <v>416</v>
       </c>
       <c r="C226">
         <v>0</v>
@@ -4454,14 +4230,13 @@
       <c r="E226">
         <v>1</v>
       </c>
-      <c r="G226" s="1"/>
-    </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A227" s="1">
         <v>45139</v>
       </c>
-      <c r="B227" t="e">
-        <v>#REF!</v>
+      <c r="B227">
+        <v>492</v>
       </c>
       <c r="C227">
         <v>0</v>
@@ -4472,14 +4247,13 @@
       <c r="E227">
         <v>1</v>
       </c>
-      <c r="G227" s="1"/>
-    </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A228" s="1">
         <v>45140</v>
       </c>
-      <c r="B228" t="e">
-        <v>#REF!</v>
+      <c r="B228">
+        <v>476</v>
       </c>
       <c r="C228">
         <v>0</v>
@@ -4490,14 +4264,13 @@
       <c r="E228">
         <v>1</v>
       </c>
-      <c r="G228" s="1"/>
-    </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A229" s="1">
         <v>45141</v>
       </c>
-      <c r="B229" t="e">
-        <v>#REF!</v>
+      <c r="B229">
+        <v>457</v>
       </c>
       <c r="C229">
         <v>0</v>
@@ -4508,14 +4281,13 @@
       <c r="E229">
         <v>1</v>
       </c>
-      <c r="G229" s="1"/>
-    </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A230" s="1">
         <v>45142</v>
       </c>
-      <c r="B230" t="e">
-        <v>#REF!</v>
+      <c r="B230">
+        <v>252</v>
       </c>
       <c r="C230">
         <v>0</v>
@@ -4526,14 +4298,13 @@
       <c r="E230">
         <v>1</v>
       </c>
-      <c r="G230" s="1"/>
-    </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A231" s="1">
         <v>45145</v>
       </c>
-      <c r="B231" t="e">
-        <v>#REF!</v>
+      <c r="B231">
+        <v>381</v>
       </c>
       <c r="C231">
         <v>0</v>
@@ -4544,14 +4315,13 @@
       <c r="E231">
         <v>1</v>
       </c>
-      <c r="G231" s="1"/>
-    </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A232" s="1">
         <v>45146</v>
       </c>
-      <c r="B232" t="e">
-        <v>#REF!</v>
+      <c r="B232">
+        <v>418</v>
       </c>
       <c r="C232">
         <v>0</v>
@@ -4562,14 +4332,13 @@
       <c r="E232">
         <v>1</v>
       </c>
-      <c r="G232" s="1"/>
-    </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A233" s="1">
         <v>45147</v>
       </c>
-      <c r="B233" t="e">
-        <v>#REF!</v>
+      <c r="B233">
+        <v>406</v>
       </c>
       <c r="C233">
         <v>0</v>
@@ -4580,14 +4349,13 @@
       <c r="E233">
         <v>1</v>
       </c>
-      <c r="G233" s="1"/>
-    </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A234" s="1">
         <v>45148</v>
       </c>
-      <c r="B234" t="e">
-        <v>#REF!</v>
+      <c r="B234">
+        <v>383</v>
       </c>
       <c r="C234">
         <v>0</v>
@@ -4598,14 +4366,13 @@
       <c r="E234">
         <v>1</v>
       </c>
-      <c r="G234" s="1"/>
-    </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="235" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A235" s="1">
         <v>45149</v>
       </c>
-      <c r="B235" t="e">
-        <v>#REF!</v>
+      <c r="B235">
+        <v>227</v>
       </c>
       <c r="C235">
         <v>0</v>
@@ -4616,14 +4383,13 @@
       <c r="E235">
         <v>1</v>
       </c>
-      <c r="G235" s="1"/>
-    </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="236" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A236" s="1">
         <v>45152</v>
       </c>
-      <c r="B236" t="e">
-        <v>#REF!</v>
+      <c r="B236">
+        <v>183</v>
       </c>
       <c r="C236">
         <v>0</v>
@@ -4634,14 +4400,13 @@
       <c r="E236">
         <v>1</v>
       </c>
-      <c r="G236" s="1"/>
-    </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="237" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A237" s="1">
         <v>45154</v>
       </c>
-      <c r="B237" t="e">
-        <v>#REF!</v>
+      <c r="B237">
+        <v>365</v>
       </c>
       <c r="C237">
         <v>0</v>
@@ -4652,14 +4417,13 @@
       <c r="E237">
         <v>1</v>
       </c>
-      <c r="G237" s="1"/>
-    </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="238" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A238" s="1">
         <v>45155</v>
       </c>
-      <c r="B238" t="e">
-        <v>#REF!</v>
+      <c r="B238">
+        <v>382</v>
       </c>
       <c r="C238">
         <v>0</v>
@@ -4670,14 +4434,13 @@
       <c r="E238">
         <v>1</v>
       </c>
-      <c r="G238" s="1"/>
-    </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="239" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A239" s="1">
         <v>45156</v>
       </c>
-      <c r="B239" t="e">
-        <v>#REF!</v>
+      <c r="B239">
+        <v>261</v>
       </c>
       <c r="C239">
         <v>0</v>
@@ -4688,14 +4451,13 @@
       <c r="E239">
         <v>1</v>
       </c>
-      <c r="G239" s="1"/>
-    </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="240" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A240" s="1">
         <v>45159</v>
       </c>
-      <c r="B240" t="e">
-        <v>#REF!</v>
+      <c r="B240">
+        <v>435</v>
       </c>
       <c r="C240">
         <v>0</v>
@@ -4706,14 +4468,13 @@
       <c r="E240">
         <v>1</v>
       </c>
-      <c r="G240" s="1"/>
-    </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="241" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A241" s="1">
         <v>45160</v>
       </c>
-      <c r="B241" t="e">
-        <v>#REF!</v>
+      <c r="B241">
+        <v>507</v>
       </c>
       <c r="C241">
         <v>0</v>
@@ -4724,14 +4485,13 @@
       <c r="E241">
         <v>1</v>
       </c>
-      <c r="G241" s="1"/>
-    </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A242" s="1">
         <v>45161</v>
       </c>
-      <c r="B242" t="e">
-        <v>#REF!</v>
+      <c r="B242">
+        <v>495</v>
       </c>
       <c r="C242">
         <v>0</v>
@@ -4742,14 +4502,13 @@
       <c r="E242">
         <v>1</v>
       </c>
-      <c r="G242" s="1"/>
-    </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="243" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A243" s="1">
         <v>45162</v>
       </c>
-      <c r="B243" t="e">
-        <v>#REF!</v>
+      <c r="B243">
+        <v>442</v>
       </c>
       <c r="C243">
         <v>0</v>
@@ -4760,14 +4519,13 @@
       <c r="E243">
         <v>1</v>
       </c>
-      <c r="G243" s="1"/>
-    </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="244" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A244" s="1">
         <v>45163</v>
       </c>
-      <c r="B244" t="e">
-        <v>#REF!</v>
+      <c r="B244">
+        <v>287</v>
       </c>
       <c r="C244">
         <v>0</v>
@@ -4778,14 +4536,13 @@
       <c r="E244">
         <v>1</v>
       </c>
-      <c r="G244" s="1"/>
-    </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="245" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A245" s="1">
         <v>45166</v>
       </c>
-      <c r="B245" t="e">
-        <v>#REF!</v>
+      <c r="B245">
+        <v>486</v>
       </c>
       <c r="C245">
         <v>0</v>
@@ -4796,14 +4553,13 @@
       <c r="E245">
         <v>1</v>
       </c>
-      <c r="G245" s="1"/>
-    </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="246" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A246" s="1">
         <v>45167</v>
       </c>
-      <c r="B246" t="e">
-        <v>#REF!</v>
+      <c r="B246">
+        <v>570</v>
       </c>
       <c r="C246">
         <v>0</v>
@@ -4814,14 +4570,13 @@
       <c r="E246">
         <v>1</v>
       </c>
-      <c r="G246" s="1"/>
-    </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="247" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A247" s="1">
         <v>45168</v>
       </c>
-      <c r="B247" t="e">
-        <v>#REF!</v>
+      <c r="B247">
+        <v>608</v>
       </c>
       <c r="C247">
         <v>0</v>
@@ -4832,14 +4587,13 @@
       <c r="E247">
         <v>1</v>
       </c>
-      <c r="G247" s="1"/>
-    </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="248" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A248" s="1">
         <v>45169</v>
       </c>
-      <c r="B248" t="e">
-        <v>#REF!</v>
+      <c r="B248">
+        <v>516</v>
       </c>
       <c r="C248">
         <v>0</v>
@@ -4850,14 +4604,13 @@
       <c r="E248">
         <v>1</v>
       </c>
-      <c r="G248" s="1"/>
-    </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="249" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A249" s="1">
         <v>45170</v>
       </c>
-      <c r="B249" t="e">
-        <v>#REF!</v>
+      <c r="B249">
+        <v>341</v>
       </c>
       <c r="C249">
         <v>0</v>
@@ -4868,14 +4621,13 @@
       <c r="E249">
         <v>1</v>
       </c>
-      <c r="G249" s="1"/>
-    </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="250" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A250" s="1">
         <v>45173</v>
       </c>
-      <c r="B250" t="e">
-        <v>#REF!</v>
+      <c r="B250">
+        <v>529</v>
       </c>
       <c r="C250">
         <v>0</v>
@@ -4886,14 +4638,13 @@
       <c r="E250">
         <v>0</v>
       </c>
-      <c r="G250" s="1"/>
-    </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="251" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A251" s="1">
         <v>45174</v>
       </c>
-      <c r="B251" t="e">
-        <v>#REF!</v>
+      <c r="B251">
+        <v>660</v>
       </c>
       <c r="C251">
         <v>0</v>
@@ -4904,14 +4655,13 @@
       <c r="E251">
         <v>0</v>
       </c>
-      <c r="G251" s="1"/>
-    </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="252" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A252" s="1">
         <v>45175</v>
       </c>
-      <c r="B252" t="e">
-        <v>#REF!</v>
+      <c r="B252">
+        <v>630</v>
       </c>
       <c r="C252">
         <v>0</v>
@@ -4922,14 +4672,13 @@
       <c r="E252">
         <v>0</v>
       </c>
-      <c r="G252" s="1"/>
-    </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="253" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A253" s="1">
         <v>45176</v>
       </c>
-      <c r="B253" t="e">
-        <v>#REF!</v>
+      <c r="B253">
+        <v>649</v>
       </c>
       <c r="C253">
         <v>0</v>
@@ -4940,14 +4689,13 @@
       <c r="E253">
         <v>0</v>
       </c>
-      <c r="G253" s="1"/>
-    </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="254" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A254" s="1">
         <v>45177</v>
       </c>
-      <c r="B254" t="e">
-        <v>#REF!</v>
+      <c r="B254">
+        <v>391</v>
       </c>
       <c r="C254">
         <v>0</v>
@@ -4958,14 +4706,13 @@
       <c r="E254">
         <v>0</v>
       </c>
-      <c r="G254" s="1"/>
-    </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="255" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A255" s="1">
         <v>45180</v>
       </c>
-      <c r="B255" t="e">
-        <v>#REF!</v>
+      <c r="B255">
+        <v>661</v>
       </c>
       <c r="C255">
         <v>0</v>
@@ -4976,14 +4723,13 @@
       <c r="E255">
         <v>0</v>
       </c>
-      <c r="G255" s="1"/>
-    </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="256" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A256" s="1">
         <v>45181</v>
       </c>
-      <c r="B256" t="e">
-        <v>#REF!</v>
+      <c r="B256">
+        <v>718</v>
       </c>
       <c r="C256">
         <v>0</v>
@@ -4994,14 +4740,13 @@
       <c r="E256">
         <v>0</v>
       </c>
-      <c r="G256" s="1"/>
-    </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="257" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A257" s="1">
         <v>45182</v>
       </c>
-      <c r="B257" t="e">
-        <v>#REF!</v>
+      <c r="B257">
+        <v>725</v>
       </c>
       <c r="C257">
         <v>0</v>
@@ -5012,14 +4757,13 @@
       <c r="E257">
         <v>0</v>
       </c>
-      <c r="G257" s="1"/>
-    </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="258" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A258" s="1">
         <v>45183</v>
       </c>
-      <c r="B258" t="e">
-        <v>#REF!</v>
+      <c r="B258">
+        <v>761</v>
       </c>
       <c r="C258">
         <v>0</v>
@@ -5030,14 +4774,13 @@
       <c r="E258">
         <v>0</v>
       </c>
-      <c r="G258" s="1"/>
-    </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="259" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A259" s="1">
         <v>45184</v>
       </c>
-      <c r="B259" t="e">
-        <v>#REF!</v>
+      <c r="B259">
+        <v>453</v>
       </c>
       <c r="C259">
         <v>0</v>
@@ -5048,14 +4791,13 @@
       <c r="E259">
         <v>0</v>
       </c>
-      <c r="G259" s="1"/>
-    </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="260" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A260" s="1">
         <v>45187</v>
       </c>
-      <c r="B260" t="e">
-        <v>#REF!</v>
+      <c r="B260">
+        <v>676</v>
       </c>
       <c r="C260">
         <v>0</v>
@@ -5066,14 +4808,13 @@
       <c r="E260">
         <v>0</v>
       </c>
-      <c r="G260" s="1"/>
-    </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="261" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A261" s="1">
         <v>45188</v>
       </c>
-      <c r="B261" t="e">
-        <v>#REF!</v>
+      <c r="B261">
+        <v>764</v>
       </c>
       <c r="C261">
         <v>0</v>
@@ -5084,14 +4825,13 @@
       <c r="E261">
         <v>0</v>
       </c>
-      <c r="G261" s="1"/>
-    </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="262" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A262" s="1">
         <v>45189</v>
       </c>
-      <c r="B262" t="e">
-        <v>#REF!</v>
+      <c r="B262">
+        <v>714</v>
       </c>
       <c r="C262">
         <v>0</v>
@@ -5102,14 +4842,13 @@
       <c r="E262">
         <v>0</v>
       </c>
-      <c r="G262" s="1"/>
-    </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="263" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A263" s="1">
         <v>45190</v>
       </c>
-      <c r="B263" t="e">
-        <v>#REF!</v>
+      <c r="B263">
+        <v>677</v>
       </c>
       <c r="C263">
         <v>0</v>
@@ -5120,14 +4859,13 @@
       <c r="E263">
         <v>0</v>
       </c>
-      <c r="G263" s="1"/>
-    </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="264" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A264" s="1">
         <v>45191</v>
       </c>
-      <c r="B264" t="e">
-        <v>#REF!</v>
+      <c r="B264">
+        <v>558</v>
       </c>
       <c r="C264">
         <v>0</v>
@@ -5138,14 +4876,13 @@
       <c r="E264">
         <v>0</v>
       </c>
-      <c r="G264" s="1"/>
-    </row>
-    <row r="265" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="265" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A265" s="1">
         <v>45194</v>
       </c>
-      <c r="B265" t="e">
-        <v>#REF!</v>
+      <c r="B265">
+        <v>624</v>
       </c>
       <c r="C265">
         <v>0</v>
@@ -5156,14 +4893,13 @@
       <c r="E265">
         <v>0</v>
       </c>
-      <c r="G265" s="1"/>
-    </row>
-    <row r="266" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="266" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A266" s="1">
         <v>45195</v>
       </c>
-      <c r="B266" t="e">
-        <v>#REF!</v>
+      <c r="B266">
+        <v>713</v>
       </c>
       <c r="C266">
         <v>0</v>
@@ -5174,14 +4910,13 @@
       <c r="E266">
         <v>0</v>
       </c>
-      <c r="G266" s="1"/>
-    </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="267" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A267" s="1">
         <v>45196</v>
       </c>
-      <c r="B267" t="e">
-        <v>#REF!</v>
+      <c r="B267">
+        <v>623</v>
       </c>
       <c r="C267">
         <v>0</v>
@@ -5192,14 +4927,13 @@
       <c r="E267">
         <v>0</v>
       </c>
-      <c r="G267" s="1"/>
-    </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="268" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A268" s="1">
         <v>45197</v>
       </c>
-      <c r="B268" t="e">
-        <v>#REF!</v>
+      <c r="B268">
+        <v>659</v>
       </c>
       <c r="C268">
         <v>0</v>
@@ -5210,14 +4944,13 @@
       <c r="E268">
         <v>0</v>
       </c>
-      <c r="G268" s="1"/>
-    </row>
-    <row r="269" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="269" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A269" s="1">
         <v>45198</v>
       </c>
-      <c r="B269" t="e">
-        <v>#REF!</v>
+      <c r="B269">
+        <v>408</v>
       </c>
       <c r="C269">
         <v>0</v>
@@ -5228,14 +4961,13 @@
       <c r="E269">
         <v>0</v>
       </c>
-      <c r="G269" s="1"/>
-    </row>
-    <row r="270" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="270" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A270" s="1">
         <v>45201</v>
       </c>
-      <c r="B270" t="e">
-        <v>#REF!</v>
+      <c r="B270">
+        <v>642</v>
       </c>
       <c r="C270">
         <v>0</v>
@@ -5246,14 +4978,13 @@
       <c r="E270">
         <v>0</v>
       </c>
-      <c r="G270" s="1"/>
-    </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="271" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A271" s="1">
         <v>45202</v>
       </c>
-      <c r="B271" t="e">
-        <v>#REF!</v>
+      <c r="B271">
+        <v>749</v>
       </c>
       <c r="C271">
         <v>0</v>
@@ -5264,14 +4995,13 @@
       <c r="E271">
         <v>0</v>
       </c>
-      <c r="G271" s="1"/>
-    </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="272" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A272" s="1">
         <v>45203</v>
       </c>
-      <c r="B272" t="e">
-        <v>#REF!</v>
+      <c r="B272">
+        <v>715</v>
       </c>
       <c r="C272">
         <v>0</v>
@@ -5282,14 +5012,13 @@
       <c r="E272">
         <v>0</v>
       </c>
-      <c r="G272" s="1"/>
-    </row>
-    <row r="273" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="273" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A273" s="1">
         <v>45204</v>
       </c>
-      <c r="B273" t="e">
-        <v>#REF!</v>
+      <c r="B273">
+        <v>666</v>
       </c>
       <c r="C273">
         <v>0</v>
@@ -5300,14 +5029,13 @@
       <c r="E273">
         <v>0</v>
       </c>
-      <c r="G273" s="1"/>
-    </row>
-    <row r="274" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="274" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A274" s="1">
         <v>45205</v>
       </c>
-      <c r="B274" t="e">
-        <v>#REF!</v>
+      <c r="B274">
+        <v>470</v>
       </c>
       <c r="C274">
         <v>0</v>
@@ -5318,14 +5046,13 @@
       <c r="E274">
         <v>0</v>
       </c>
-      <c r="G274" s="1"/>
-    </row>
-    <row r="275" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="275" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A275" s="1">
         <v>45208</v>
       </c>
-      <c r="B275" t="e">
-        <v>#REF!</v>
+      <c r="B275">
+        <v>671</v>
       </c>
       <c r="C275">
         <v>0</v>
@@ -5336,14 +5063,13 @@
       <c r="E275">
         <v>0</v>
       </c>
-      <c r="G275" s="1"/>
-    </row>
-    <row r="276" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="276" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A276" s="1">
         <v>45209</v>
       </c>
-      <c r="B276" t="e">
-        <v>#REF!</v>
+      <c r="B276">
+        <v>727</v>
       </c>
       <c r="C276">
         <v>0</v>
@@ -5354,14 +5080,13 @@
       <c r="E276">
         <v>0</v>
       </c>
-      <c r="G276" s="1"/>
-    </row>
-    <row r="277" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="277" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A277" s="1">
         <v>45210</v>
       </c>
-      <c r="B277" t="e">
-        <v>#REF!</v>
+      <c r="B277">
+        <v>686</v>
       </c>
       <c r="C277">
         <v>0</v>
@@ -5372,14 +5097,13 @@
       <c r="E277">
         <v>0</v>
       </c>
-      <c r="G277" s="1"/>
-    </row>
-    <row r="278" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="278" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A278" s="1">
         <v>45211</v>
       </c>
-      <c r="B278" t="e">
-        <v>#REF!</v>
+      <c r="B278">
+        <v>663</v>
       </c>
       <c r="C278">
         <v>0</v>
@@ -5390,14 +5114,13 @@
       <c r="E278">
         <v>0</v>
       </c>
-      <c r="G278" s="1"/>
-    </row>
-    <row r="279" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="279" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A279" s="1">
         <v>45212</v>
       </c>
-      <c r="B279" t="e">
-        <v>#REF!</v>
+      <c r="B279">
+        <v>420</v>
       </c>
       <c r="C279">
         <v>0</v>
@@ -5408,14 +5131,13 @@
       <c r="E279">
         <v>0</v>
       </c>
-      <c r="G279" s="1"/>
-    </row>
-    <row r="280" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="280" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A280" s="1">
         <v>45215</v>
       </c>
-      <c r="B280" t="e">
-        <v>#REF!</v>
+      <c r="B280">
+        <v>644</v>
       </c>
       <c r="C280">
         <v>0</v>
@@ -5426,14 +5148,13 @@
       <c r="E280">
         <v>0</v>
       </c>
-      <c r="G280" s="1"/>
-    </row>
-    <row r="281" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="281" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A281" s="1">
         <v>45216</v>
       </c>
-      <c r="B281" t="e">
-        <v>#REF!</v>
+      <c r="B281">
+        <v>605</v>
       </c>
       <c r="C281">
         <v>0</v>
@@ -5444,14 +5165,13 @@
       <c r="E281">
         <v>0</v>
       </c>
-      <c r="G281" s="1"/>
-    </row>
-    <row r="282" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="282" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A282" s="1">
         <v>45217</v>
       </c>
-      <c r="B282" t="e">
-        <v>#REF!</v>
+      <c r="B282">
+        <v>693</v>
       </c>
       <c r="C282">
         <v>0</v>
@@ -5462,14 +5182,13 @@
       <c r="E282">
         <v>0</v>
       </c>
-      <c r="G282" s="1"/>
-    </row>
-    <row r="283" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="283" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A283" s="1">
         <v>45218</v>
       </c>
-      <c r="B283" t="e">
-        <v>#REF!</v>
+      <c r="B283">
+        <v>703</v>
       </c>
       <c r="C283">
         <v>0</v>
@@ -5480,14 +5199,13 @@
       <c r="E283">
         <v>0</v>
       </c>
-      <c r="G283" s="1"/>
-    </row>
-    <row r="284" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="284" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A284" s="1">
         <v>45219</v>
       </c>
-      <c r="B284" t="e">
-        <v>#REF!</v>
+      <c r="B284">
+        <v>447</v>
       </c>
       <c r="C284">
         <v>0</v>
@@ -5498,7 +5216,6 @@
       <c r="E284">
         <v>0</v>
       </c>
-      <c r="G284" s="1"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B274">
